--- a/tables/plot_means.xlsx
+++ b/tables/plot_means.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -20,6 +20,12 @@
     <t xml:space="preserve">study_id</t>
   </si>
   <si>
+    <t xml:space="preserve">natural_es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">converted_es</t>
+  </si>
+  <si>
     <t xml:space="preserve">plot_mean_exp</t>
   </si>
   <si>
@@ -57,6 +63,12 @@
   </si>
   <si>
     <t xml:space="preserve">plot_means_sd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D+G+MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR+R+Z</t>
   </si>
   <si>
     <t xml:space="preserve">101.2</t>
@@ -464,104 +476,128 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2"/>
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
-      <c r="M2" t="n">
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2" t="n">
         <v>10</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
       <c r="K3"/>
       <c r="L3"/>
-      <c r="M3" t="n">
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3" t="n">
         <v>20</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4" t="n">
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4" t="n">
         <v>45</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>55</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>55</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>65</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>59</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>64</v>
       </c>
     </row>

--- a/tables/plot_means.xlsx
+++ b/tables/plot_means.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -32,16 +32,28 @@
     <t xml:space="preserve">plot_mean_nexp</t>
   </si>
   <si>
-    <t xml:space="preserve">plot_mean_sd_exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plot_mean_sd_nexp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plot_mean_se_exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plot_mean_se_nexp</t>
+    <t xml:space="preserve">plot_mean_sd_lo_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plot_mean_sd_up_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plot_mean_sd_lo_nexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plot_mean_sd_up_nexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plot_mean_se_lo_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plot_mean_se_up_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plot_mean_se_lo_nexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plot_mean_se_up_nexp</t>
   </si>
   <si>
     <t xml:space="preserve">plot_mean_ci_lo_exp</t>
@@ -71,37 +83,10 @@
     <t xml:space="preserve">OR+R+Z</t>
   </si>
   <si>
-    <t xml:space="preserve">101.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.87</t>
-  </si>
-  <si>
     <t xml:space="preserve">plot_means_se</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13</t>
-  </si>
-  <si>
     <t xml:space="preserve">plot_means_ci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
   </si>
 </sst>
 </file>
@@ -482,42 +467,62 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="E2" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>98.9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>85.33</v>
+      </c>
+      <c r="H2" t="n">
+        <v>117.07</v>
+      </c>
+      <c r="I2" t="n">
+        <v>83.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>114.77</v>
+      </c>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2" t="n">
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2" t="n">
         <v>10</v>
       </c>
-      <c r="P2" t="n">
+      <c r="T2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -529,75 +534,87 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.81</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3" t="n">
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3" t="n">
+        <v>0.0700000000000003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3" t="n">
         <v>20</v>
       </c>
-      <c r="P3" t="n">
+      <c r="T3" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>60</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4" t="n">
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4" t="n">
         <v>45</v>
       </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
         <v>55</v>
       </c>
-      <c r="M4" t="n">
+      <c r="Q4" t="n">
         <v>55</v>
       </c>
-      <c r="N4" t="n">
+      <c r="R4" t="n">
         <v>65</v>
       </c>
-      <c r="O4" t="n">
+      <c r="S4" t="n">
         <v>59</v>
       </c>
-      <c r="P4" t="n">
+      <c r="T4" t="n">
         <v>64</v>
       </c>
     </row>
